--- a/Code/Results/Cases/Case_5_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01076686357179</v>
+        <v>1.037579597792125</v>
       </c>
       <c r="D2">
-        <v>1.026073738753466</v>
+        <v>1.040533300745849</v>
       </c>
       <c r="E2">
-        <v>1.022226910815627</v>
+        <v>1.045203871433052</v>
       </c>
       <c r="F2">
-        <v>1.025088398099685</v>
+        <v>1.053372110736914</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04566815401596</v>
+        <v>1.038082771872998</v>
       </c>
       <c r="J2">
-        <v>1.032630240370024</v>
+        <v>1.042681699862227</v>
       </c>
       <c r="K2">
-        <v>1.037181393735676</v>
+        <v>1.043315379284932</v>
       </c>
       <c r="L2">
-        <v>1.033385036405041</v>
+        <v>1.047972769223768</v>
       </c>
       <c r="M2">
-        <v>1.036208935590786</v>
+        <v>1.056118261612939</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014942018675273</v>
+        <v>1.038466054398504</v>
       </c>
       <c r="D3">
-        <v>1.029120863101801</v>
+        <v>1.041199342010531</v>
       </c>
       <c r="E3">
-        <v>1.025840086672423</v>
+        <v>1.046026717697068</v>
       </c>
       <c r="F3">
-        <v>1.029342853770973</v>
+        <v>1.054356577663086</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046826931148026</v>
+        <v>1.038279962851485</v>
       </c>
       <c r="J3">
-        <v>1.035033474439526</v>
+        <v>1.043212910844094</v>
       </c>
       <c r="K3">
-        <v>1.039394217140933</v>
+        <v>1.043792243320464</v>
       </c>
       <c r="L3">
-        <v>1.036152678940656</v>
+        <v>1.048606978714172</v>
       </c>
       <c r="M3">
-        <v>1.039613563992106</v>
+        <v>1.056915320911727</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017591909746605</v>
+        <v>1.039040177727296</v>
       </c>
       <c r="D4">
-        <v>1.031057340512815</v>
+        <v>1.041630689919628</v>
       </c>
       <c r="E4">
-        <v>1.028139081777544</v>
+        <v>1.046560055103997</v>
       </c>
       <c r="F4">
-        <v>1.03205044696226</v>
+        <v>1.054994846577108</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047553866182741</v>
+        <v>1.038406602487467</v>
       </c>
       <c r="J4">
-        <v>1.036556072021726</v>
+        <v>1.043556519681174</v>
       </c>
       <c r="K4">
-        <v>1.040794841468592</v>
+        <v>1.044100498083387</v>
       </c>
       <c r="L4">
-        <v>1.037909352568905</v>
+        <v>1.049017604598287</v>
       </c>
       <c r="M4">
-        <v>1.041776848101164</v>
+        <v>1.05743170564266</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018693948490583</v>
+        <v>1.039281663937199</v>
       </c>
       <c r="D5">
-        <v>1.031863244574394</v>
+        <v>1.041812116719799</v>
       </c>
       <c r="E5">
-        <v>1.029096546373592</v>
+        <v>1.046784484269654</v>
       </c>
       <c r="F5">
-        <v>1.03317823488831</v>
+        <v>1.055263473244371</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047854107893043</v>
+        <v>1.038459612283472</v>
       </c>
       <c r="J5">
-        <v>1.037188616679036</v>
+        <v>1.043700942959237</v>
       </c>
       <c r="K5">
-        <v>1.041376383408131</v>
+        <v>1.044230013493025</v>
       </c>
       <c r="L5">
-        <v>1.038639915761692</v>
+        <v>1.049190290323007</v>
       </c>
       <c r="M5">
-        <v>1.042677075017789</v>
+        <v>1.057648944199867</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018878294826281</v>
+        <v>1.039322217812475</v>
       </c>
       <c r="D6">
-        <v>1.031998085861078</v>
+        <v>1.041842584201065</v>
       </c>
       <c r="E6">
-        <v>1.029256787587716</v>
+        <v>1.046822179425273</v>
       </c>
       <c r="F6">
-        <v>1.033366990998343</v>
+        <v>1.055308594298051</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047904208586199</v>
+        <v>1.03846849938534</v>
       </c>
       <c r="J6">
-        <v>1.037294386718786</v>
+        <v>1.043725190479064</v>
       </c>
       <c r="K6">
-        <v>1.041473605394724</v>
+        <v>1.044251755275923</v>
       </c>
       <c r="L6">
-        <v>1.038762121554617</v>
+        <v>1.04921928841677</v>
       </c>
       <c r="M6">
-        <v>1.042827694900907</v>
+        <v>1.057685428289927</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017606681774334</v>
+        <v>1.039043403989255</v>
       </c>
       <c r="D7">
-        <v>1.031068140916905</v>
+        <v>1.041633113809041</v>
       </c>
       <c r="E7">
-        <v>1.028151910575206</v>
+        <v>1.046563053098084</v>
       </c>
       <c r="F7">
-        <v>1.032065557241433</v>
+        <v>1.05499843480915</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04755789894808</v>
+        <v>1.03840731170952</v>
       </c>
       <c r="J7">
-        <v>1.036564553524092</v>
+        <v>1.04355844959086</v>
       </c>
       <c r="K7">
-        <v>1.040802640417114</v>
+        <v>1.044102228970307</v>
       </c>
       <c r="L7">
-        <v>1.037919145288259</v>
+        <v>1.049019911804663</v>
       </c>
       <c r="M7">
-        <v>1.041788912813919</v>
+        <v>1.057434607805585</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012188834135829</v>
+        <v>1.037879070119658</v>
       </c>
       <c r="D8">
-        <v>1.027110968058675</v>
+        <v>1.040758313994126</v>
       </c>
       <c r="E8">
-        <v>1.023456252692415</v>
+        <v>1.045481768723317</v>
       </c>
       <c r="F8">
-        <v>1.026535821798567</v>
+        <v>1.053704555571891</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046064573955265</v>
+        <v>1.03814961108862</v>
       </c>
       <c r="J8">
-        <v>1.033449277033619</v>
+        <v>1.042861249322774</v>
       </c>
       <c r="K8">
-        <v>1.037935811602297</v>
+        <v>1.043476600850453</v>
       </c>
       <c r="L8">
-        <v>1.03432759816886</v>
+        <v>1.048187050798431</v>
       </c>
       <c r="M8">
-        <v>1.037367955987682</v>
+        <v>1.056387499416241</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002226670578138</v>
+        <v>1.035831456565464</v>
       </c>
       <c r="D9">
-        <v>1.019856898889833</v>
+        <v>1.039219743367257</v>
       </c>
       <c r="E9">
-        <v>1.014869418898781</v>
+        <v>1.043583375320005</v>
       </c>
       <c r="F9">
-        <v>1.016427290018209</v>
+        <v>1.051434240041506</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043252594039553</v>
+        <v>1.037688214077042</v>
       </c>
       <c r="J9">
-        <v>1.027701043652169</v>
+        <v>1.04163182166446</v>
       </c>
       <c r="K9">
-        <v>1.032635822154086</v>
+        <v>1.042371853577857</v>
       </c>
       <c r="L9">
-        <v>1.027725770264843</v>
+        <v>1.046721411990372</v>
       </c>
       <c r="M9">
-        <v>1.029259351928635</v>
+        <v>1.05454727793117</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9952777000020803</v>
+        <v>1.034469209463584</v>
       </c>
       <c r="D10">
-        <v>1.014815216162828</v>
+        <v>1.038196097926452</v>
       </c>
       <c r="E10">
-        <v>1.008914095435076</v>
+        <v>1.042322556366991</v>
       </c>
       <c r="F10">
-        <v>1.009417704386886</v>
+        <v>1.049927286629879</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041248575814266</v>
+        <v>1.037375747318874</v>
       </c>
       <c r="J10">
-        <v>1.023679938546101</v>
+        <v>1.040811682633901</v>
       </c>
       <c r="K10">
-        <v>1.028922032124738</v>
+        <v>1.041633868408017</v>
       </c>
       <c r="L10">
-        <v>1.023124246985291</v>
+        <v>1.045745716251056</v>
       </c>
       <c r="M10">
-        <v>1.023618976015527</v>
+        <v>1.053323851674419</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9921889634873196</v>
+        <v>1.033880028501522</v>
       </c>
       <c r="D11">
-        <v>1.012579344392912</v>
+        <v>1.037753358224991</v>
       </c>
       <c r="E11">
-        <v>1.006275693306617</v>
+        <v>1.04177776008618</v>
       </c>
       <c r="F11">
-        <v>1.006312184850662</v>
+        <v>1.049276341558851</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040348213993596</v>
+        <v>1.03723929857591</v>
       </c>
       <c r="J11">
-        <v>1.021890340119489</v>
+        <v>1.040456443611392</v>
       </c>
       <c r="K11">
-        <v>1.02726786880318</v>
+        <v>1.041313973936863</v>
       </c>
       <c r="L11">
-        <v>1.021080221799366</v>
+        <v>1.04532357585312</v>
       </c>
       <c r="M11">
-        <v>1.021116036346929</v>
+        <v>1.052794915357921</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9910290589877108</v>
+        <v>1.033661284047918</v>
       </c>
       <c r="D12">
-        <v>1.01174054705973</v>
+        <v>1.037588982503987</v>
       </c>
       <c r="E12">
-        <v>1.005286252000177</v>
+        <v>1.04157557230905</v>
       </c>
       <c r="F12">
-        <v>1.005147533423952</v>
+        <v>1.049034789847471</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040008705152103</v>
+        <v>1.037188443469678</v>
       </c>
       <c r="J12">
-        <v>1.021217998255296</v>
+        <v>1.040324476069615</v>
       </c>
       <c r="K12">
-        <v>1.026646221156283</v>
+        <v>1.041195100609278</v>
       </c>
       <c r="L12">
-        <v>1.020312871727923</v>
+        <v>1.045166826760283</v>
       </c>
       <c r="M12">
-        <v>1.020176774852651</v>
+        <v>1.052598568719622</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9912784435330502</v>
+        <v>1.033708200767651</v>
       </c>
       <c r="D13">
-        <v>1.011920853391879</v>
+        <v>1.037624238121168</v>
       </c>
       <c r="E13">
-        <v>1.005498924399705</v>
+        <v>1.041618934383063</v>
       </c>
       <c r="F13">
-        <v>1.005397867802773</v>
+        <v>1.049086592702485</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040081763514604</v>
+        <v>1.037199359834959</v>
       </c>
       <c r="J13">
-        <v>1.021362567532948</v>
+        <v>1.040352784259686</v>
       </c>
       <c r="K13">
-        <v>1.026779898272652</v>
+        <v>1.041220601598952</v>
       </c>
       <c r="L13">
-        <v>1.020477843954124</v>
+        <v>1.0452004475708</v>
       </c>
       <c r="M13">
-        <v>1.02037868971395</v>
+        <v>1.052640680113123</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9920933464108999</v>
+        <v>1.033861944896183</v>
       </c>
       <c r="D14">
-        <v>1.012510180542367</v>
+        <v>1.037739769286231</v>
       </c>
       <c r="E14">
-        <v>1.006194100676306</v>
+        <v>1.041761043626646</v>
       </c>
       <c r="F14">
-        <v>1.006216144660273</v>
+        <v>1.049256369949453</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040320254655317</v>
+        <v>1.037235098381618</v>
       </c>
       <c r="J14">
-        <v>1.021834921251946</v>
+        <v>1.040445535452341</v>
       </c>
       <c r="K14">
-        <v>1.027216632235092</v>
+        <v>1.041304148849763</v>
       </c>
       <c r="L14">
-        <v>1.021016960000373</v>
+        <v>1.045310617843163</v>
       </c>
       <c r="M14">
-        <v>1.021038594390931</v>
+        <v>1.052778682748915</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9925937446678513</v>
+        <v>1.033956685492684</v>
       </c>
       <c r="D15">
-        <v>1.012872174019571</v>
+        <v>1.037810962168662</v>
       </c>
       <c r="E15">
-        <v>1.006621159356787</v>
+        <v>1.041848624900794</v>
       </c>
       <c r="F15">
-        <v>1.006718820826888</v>
+        <v>1.049361006934063</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040466519084156</v>
+        <v>1.037257095310113</v>
       </c>
       <c r="J15">
-        <v>1.022124936004334</v>
+        <v>1.040502680442082</v>
       </c>
       <c r="K15">
-        <v>1.027484752837913</v>
+        <v>1.041355618439256</v>
       </c>
       <c r="L15">
-        <v>1.021348041467484</v>
+        <v>1.045378504396796</v>
       </c>
       <c r="M15">
-        <v>1.021443902918873</v>
+        <v>1.052863727181154</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9954809559777662</v>
+        <v>1.03450832592053</v>
       </c>
       <c r="D16">
-        <v>1.014962460826395</v>
+        <v>1.038225491887016</v>
       </c>
       <c r="E16">
-        <v>1.009087901665102</v>
+        <v>1.04235873699253</v>
       </c>
       <c r="F16">
-        <v>1.009622279030243</v>
+        <v>1.04997052103999</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041307628124311</v>
+        <v>1.037384778823947</v>
       </c>
       <c r="J16">
-        <v>1.023797660270555</v>
+        <v>1.04083525638118</v>
       </c>
       <c r="K16">
-        <v>1.029030818006971</v>
+        <v>1.041655091638992</v>
       </c>
       <c r="L16">
-        <v>1.023258785733099</v>
+        <v>1.045773739634916</v>
       </c>
       <c r="M16">
-        <v>1.023783772845479</v>
+        <v>1.053358972730338</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9972702387477237</v>
+        <v>1.034854538613015</v>
       </c>
       <c r="D17">
-        <v>1.016259259139314</v>
+        <v>1.038485651878726</v>
       </c>
       <c r="E17">
-        <v>1.010618928789042</v>
+        <v>1.042679024912835</v>
       </c>
       <c r="F17">
-        <v>1.011424331117294</v>
+        <v>1.050353276081409</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0418263830179</v>
+        <v>1.037464564230409</v>
       </c>
       <c r="J17">
-        <v>1.024833723336532</v>
+        <v>1.041043842884809</v>
       </c>
       <c r="K17">
-        <v>1.029988086573074</v>
+        <v>1.041842852477415</v>
       </c>
       <c r="L17">
-        <v>1.02444329670133</v>
+        <v>1.046021752761304</v>
       </c>
       <c r="M17">
-        <v>1.025234972258101</v>
+        <v>1.053669846429196</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9983062430462061</v>
+        <v>1.035056544242249</v>
       </c>
       <c r="D18">
-        <v>1.017010591920812</v>
+        <v>1.038637447471557</v>
       </c>
       <c r="E18">
-        <v>1.01150622195214</v>
+        <v>1.042865953968741</v>
       </c>
       <c r="F18">
-        <v>1.012468691966333</v>
+        <v>1.050576682550145</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042125830115002</v>
+        <v>1.037510990847459</v>
       </c>
       <c r="J18">
-        <v>1.025433391545251</v>
+        <v>1.041165496847957</v>
       </c>
       <c r="K18">
-        <v>1.030542021251137</v>
+        <v>1.041952337123256</v>
       </c>
       <c r="L18">
-        <v>1.025129255365731</v>
+        <v>1.046166447566498</v>
       </c>
       <c r="M18">
-        <v>1.026075615298565</v>
+        <v>1.053851252373479</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9986582137487198</v>
+        <v>1.035125434033692</v>
       </c>
       <c r="D19">
-        <v>1.017265928096786</v>
+        <v>1.03868921405376</v>
       </c>
       <c r="E19">
-        <v>1.011807807483599</v>
+        <v>1.042929710646993</v>
       </c>
       <c r="F19">
-        <v>1.012823664228009</v>
+        <v>1.050652884105598</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042227407422772</v>
+        <v>1.037526802302213</v>
       </c>
       <c r="J19">
-        <v>1.025637083859497</v>
+        <v>1.041206975804127</v>
       </c>
       <c r="K19">
-        <v>1.030730156998893</v>
+        <v>1.041989662914463</v>
       </c>
       <c r="L19">
-        <v>1.025362321252994</v>
+        <v>1.04621579030669</v>
       </c>
       <c r="M19">
-        <v>1.026361279416352</v>
+        <v>1.053913120398721</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9970790617128005</v>
+        <v>1.03481738647072</v>
       </c>
       <c r="D20">
-        <v>1.016120651692422</v>
+        <v>1.038457734128136</v>
       </c>
       <c r="E20">
-        <v>1.010455259821651</v>
+        <v>1.042644649606258</v>
       </c>
       <c r="F20">
-        <v>1.011231689638869</v>
+        <v>1.05031219436199</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041771050908457</v>
+        <v>1.037456015473939</v>
       </c>
       <c r="J20">
-        <v>1.02472304684089</v>
+        <v>1.041021464658537</v>
       </c>
       <c r="K20">
-        <v>1.029885840382913</v>
+        <v>1.04182271092946</v>
       </c>
       <c r="L20">
-        <v>1.02431672409812</v>
+        <v>1.045995139883581</v>
       </c>
       <c r="M20">
-        <v>1.025079877146397</v>
+        <v>1.053636484486099</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9918537311372008</v>
+        <v>1.033816668212492</v>
       </c>
       <c r="D21">
-        <v>1.01233687040315</v>
+        <v>1.037705746085228</v>
       </c>
       <c r="E21">
-        <v>1.005989652424638</v>
+        <v>1.041719191185709</v>
       </c>
       <c r="F21">
-        <v>1.005975494233058</v>
+        <v>1.049206368191966</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040250166499931</v>
+        <v>1.037224579012767</v>
       </c>
       <c r="J21">
-        <v>1.021696037544055</v>
+        <v>1.040418222969479</v>
       </c>
       <c r="K21">
-        <v>1.027088226689113</v>
+        <v>1.041279547645772</v>
       </c>
       <c r="L21">
-        <v>1.020858430636226</v>
+        <v>1.045278173980755</v>
       </c>
       <c r="M21">
-        <v>1.020844536528985</v>
+        <v>1.05273804098215</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9884950608008395</v>
+        <v>1.033188076892931</v>
       </c>
       <c r="D22">
-        <v>1.009909667782642</v>
+        <v>1.037233390621379</v>
       </c>
       <c r="E22">
-        <v>1.003127195188246</v>
+        <v>1.041138325173444</v>
       </c>
       <c r="F22">
-        <v>1.002606057844478</v>
+        <v>1.048512470718221</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039264472288566</v>
+        <v>1.037078071066837</v>
       </c>
       <c r="J22">
-        <v>1.019748656335457</v>
+        <v>1.040038849224012</v>
       </c>
       <c r="K22">
-        <v>1.025287335608398</v>
+        <v>1.04093774898894</v>
       </c>
       <c r="L22">
-        <v>1.018636955244995</v>
+        <v>1.04482769426482</v>
       </c>
       <c r="M22">
-        <v>1.01812606439939</v>
+        <v>1.052173871189808</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9902827221105291</v>
+        <v>1.033521247748357</v>
       </c>
       <c r="D23">
-        <v>1.011201069037741</v>
+        <v>1.037483752081896</v>
       </c>
       <c r="E23">
-        <v>1.00464998580391</v>
+        <v>1.041446157321925</v>
       </c>
       <c r="F23">
-        <v>1.004398584248579</v>
+        <v>1.048880187638313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039789860805418</v>
+        <v>1.037155831784493</v>
       </c>
       <c r="J23">
-        <v>1.020785303041107</v>
+        <v>1.040239970758251</v>
       </c>
       <c r="K23">
-        <v>1.026246099586142</v>
+        <v>1.041118970075021</v>
       </c>
       <c r="L23">
-        <v>1.019819194908175</v>
+        <v>1.045066472747763</v>
       </c>
       <c r="M23">
-        <v>1.019572601014892</v>
+        <v>1.052472879822404</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9971654699939332</v>
+        <v>1.034834173721988</v>
       </c>
       <c r="D24">
-        <v>1.016183298066146</v>
+        <v>1.038470348807724</v>
       </c>
       <c r="E24">
-        <v>1.010529232455089</v>
+        <v>1.042660181986289</v>
       </c>
       <c r="F24">
-        <v>1.011318756836689</v>
+        <v>1.050330756953386</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04179606277881</v>
+        <v>1.037459878631615</v>
       </c>
       <c r="J24">
-        <v>1.024773071130954</v>
+        <v>1.041031576449883</v>
       </c>
       <c r="K24">
-        <v>1.029932054684848</v>
+        <v>1.041831812130317</v>
       </c>
       <c r="L24">
-        <v>1.024373932069225</v>
+        <v>1.046007164995827</v>
       </c>
       <c r="M24">
-        <v>1.025149975895248</v>
+        <v>1.053651559069499</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004854149862561</v>
+        <v>1.036360320897137</v>
       </c>
       <c r="D25">
-        <v>1.021767212602829</v>
+        <v>1.039617142982559</v>
       </c>
       <c r="E25">
-        <v>1.017128407888156</v>
+        <v>1.044073320333562</v>
       </c>
       <c r="F25">
-        <v>1.019086313839391</v>
+        <v>1.052020016198537</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044001745982857</v>
+        <v>1.03780835708761</v>
       </c>
       <c r="J25">
-        <v>1.029219249569893</v>
+        <v>1.041949754742332</v>
       </c>
       <c r="K25">
-        <v>1.034036763171879</v>
+        <v>1.042657724194693</v>
       </c>
       <c r="L25">
-        <v>1.029466521399283</v>
+        <v>1.047100073920644</v>
       </c>
       <c r="M25">
-        <v>1.031395392173804</v>
+        <v>1.055022428136483</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037579597792125</v>
+        <v>1.010766863571791</v>
       </c>
       <c r="D2">
-        <v>1.040533300745849</v>
+        <v>1.026073738753467</v>
       </c>
       <c r="E2">
-        <v>1.045203871433052</v>
+        <v>1.022226910815627</v>
       </c>
       <c r="F2">
-        <v>1.053372110736914</v>
+        <v>1.025088398099685</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038082771872998</v>
+        <v>1.04566815401596</v>
       </c>
       <c r="J2">
-        <v>1.042681699862227</v>
+        <v>1.032630240370024</v>
       </c>
       <c r="K2">
-        <v>1.043315379284932</v>
+        <v>1.037181393735676</v>
       </c>
       <c r="L2">
-        <v>1.047972769223768</v>
+        <v>1.033385036405042</v>
       </c>
       <c r="M2">
-        <v>1.056118261612939</v>
+        <v>1.036208935590787</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038466054398504</v>
+        <v>1.014942018675272</v>
       </c>
       <c r="D3">
-        <v>1.041199342010531</v>
+        <v>1.029120863101801</v>
       </c>
       <c r="E3">
-        <v>1.046026717697068</v>
+        <v>1.025840086672422</v>
       </c>
       <c r="F3">
-        <v>1.054356577663086</v>
+        <v>1.029342853770972</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038279962851485</v>
+        <v>1.046826931148026</v>
       </c>
       <c r="J3">
-        <v>1.043212910844094</v>
+        <v>1.035033474439525</v>
       </c>
       <c r="K3">
-        <v>1.043792243320464</v>
+        <v>1.039394217140933</v>
       </c>
       <c r="L3">
-        <v>1.048606978714172</v>
+        <v>1.036152678940656</v>
       </c>
       <c r="M3">
-        <v>1.056915320911727</v>
+        <v>1.039613563992105</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039040177727296</v>
+        <v>1.017591909746604</v>
       </c>
       <c r="D4">
-        <v>1.041630689919628</v>
+        <v>1.031057340512814</v>
       </c>
       <c r="E4">
-        <v>1.046560055103997</v>
+        <v>1.028139081777543</v>
       </c>
       <c r="F4">
-        <v>1.054994846577108</v>
+        <v>1.03205044696226</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038406602487467</v>
+        <v>1.047553866182741</v>
       </c>
       <c r="J4">
-        <v>1.043556519681174</v>
+        <v>1.036556072021725</v>
       </c>
       <c r="K4">
-        <v>1.044100498083387</v>
+        <v>1.040794841468591</v>
       </c>
       <c r="L4">
-        <v>1.049017604598287</v>
+        <v>1.037909352568904</v>
       </c>
       <c r="M4">
-        <v>1.05743170564266</v>
+        <v>1.041776848101163</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039281663937199</v>
+        <v>1.018693948490583</v>
       </c>
       <c r="D5">
-        <v>1.041812116719799</v>
+        <v>1.031863244574394</v>
       </c>
       <c r="E5">
-        <v>1.046784484269654</v>
+        <v>1.029096546373591</v>
       </c>
       <c r="F5">
-        <v>1.055263473244371</v>
+        <v>1.03317823488831</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038459612283472</v>
+        <v>1.047854107893043</v>
       </c>
       <c r="J5">
-        <v>1.043700942959237</v>
+        <v>1.037188616679036</v>
       </c>
       <c r="K5">
-        <v>1.044230013493025</v>
+        <v>1.041376383408131</v>
       </c>
       <c r="L5">
-        <v>1.049190290323007</v>
+        <v>1.038639915761691</v>
       </c>
       <c r="M5">
-        <v>1.057648944199867</v>
+        <v>1.042677075017789</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039322217812475</v>
+        <v>1.01887829482628</v>
       </c>
       <c r="D6">
-        <v>1.041842584201065</v>
+        <v>1.031998085861078</v>
       </c>
       <c r="E6">
-        <v>1.046822179425273</v>
+        <v>1.029256787587715</v>
       </c>
       <c r="F6">
-        <v>1.055308594298051</v>
+        <v>1.033366990998341</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03846849938534</v>
+        <v>1.047904208586198</v>
       </c>
       <c r="J6">
-        <v>1.043725190479064</v>
+        <v>1.037294386718785</v>
       </c>
       <c r="K6">
-        <v>1.044251755275923</v>
+        <v>1.041473605394722</v>
       </c>
       <c r="L6">
-        <v>1.04921928841677</v>
+        <v>1.038762121554615</v>
       </c>
       <c r="M6">
-        <v>1.057685428289927</v>
+        <v>1.042827694900906</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039043403989255</v>
+        <v>1.017606681774334</v>
       </c>
       <c r="D7">
-        <v>1.041633113809041</v>
+        <v>1.031068140916905</v>
       </c>
       <c r="E7">
-        <v>1.046563053098084</v>
+        <v>1.028151910575205</v>
       </c>
       <c r="F7">
-        <v>1.05499843480915</v>
+        <v>1.032065557241432</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03840731170952</v>
+        <v>1.04755789894808</v>
       </c>
       <c r="J7">
-        <v>1.04355844959086</v>
+        <v>1.036564553524091</v>
       </c>
       <c r="K7">
-        <v>1.044102228970307</v>
+        <v>1.040802640417113</v>
       </c>
       <c r="L7">
-        <v>1.049019911804663</v>
+        <v>1.037919145288258</v>
       </c>
       <c r="M7">
-        <v>1.057434607805585</v>
+        <v>1.041788912813918</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037879070119658</v>
+        <v>1.012188834135829</v>
       </c>
       <c r="D8">
-        <v>1.040758313994126</v>
+        <v>1.027110968058674</v>
       </c>
       <c r="E8">
-        <v>1.045481768723317</v>
+        <v>1.023456252692415</v>
       </c>
       <c r="F8">
-        <v>1.053704555571891</v>
+        <v>1.026535821798567</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03814961108862</v>
+        <v>1.046064573955265</v>
       </c>
       <c r="J8">
-        <v>1.042861249322774</v>
+        <v>1.033449277033619</v>
       </c>
       <c r="K8">
-        <v>1.043476600850453</v>
+        <v>1.037935811602297</v>
       </c>
       <c r="L8">
-        <v>1.048187050798431</v>
+        <v>1.03432759816886</v>
       </c>
       <c r="M8">
-        <v>1.056387499416241</v>
+        <v>1.037367955987682</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035831456565464</v>
+        <v>1.002226670578137</v>
       </c>
       <c r="D9">
-        <v>1.039219743367257</v>
+        <v>1.019856898889832</v>
       </c>
       <c r="E9">
-        <v>1.043583375320005</v>
+        <v>1.01486941889878</v>
       </c>
       <c r="F9">
-        <v>1.051434240041506</v>
+        <v>1.016427290018208</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037688214077042</v>
+        <v>1.043252594039553</v>
       </c>
       <c r="J9">
-        <v>1.04163182166446</v>
+        <v>1.027701043652169</v>
       </c>
       <c r="K9">
-        <v>1.042371853577857</v>
+        <v>1.032635822154085</v>
       </c>
       <c r="L9">
-        <v>1.046721411990372</v>
+        <v>1.027725770264843</v>
       </c>
       <c r="M9">
-        <v>1.05454727793117</v>
+        <v>1.029259351928635</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034469209463584</v>
+        <v>0.99527770000208</v>
       </c>
       <c r="D10">
-        <v>1.038196097926452</v>
+        <v>1.014815216162828</v>
       </c>
       <c r="E10">
-        <v>1.042322556366991</v>
+        <v>1.008914095435076</v>
       </c>
       <c r="F10">
-        <v>1.049927286629879</v>
+        <v>1.009417704386885</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037375747318874</v>
+        <v>1.041248575814265</v>
       </c>
       <c r="J10">
-        <v>1.040811682633901</v>
+        <v>1.023679938546101</v>
       </c>
       <c r="K10">
-        <v>1.041633868408017</v>
+        <v>1.028922032124738</v>
       </c>
       <c r="L10">
-        <v>1.045745716251056</v>
+        <v>1.023124246985291</v>
       </c>
       <c r="M10">
-        <v>1.053323851674419</v>
+        <v>1.023618976015527</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033880028501522</v>
+        <v>0.9921889634873189</v>
       </c>
       <c r="D11">
-        <v>1.037753358224991</v>
+        <v>1.012579344392911</v>
       </c>
       <c r="E11">
-        <v>1.04177776008618</v>
+        <v>1.006275693306616</v>
       </c>
       <c r="F11">
-        <v>1.049276341558851</v>
+        <v>1.006312184850662</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03723929857591</v>
+        <v>1.040348213993596</v>
       </c>
       <c r="J11">
-        <v>1.040456443611392</v>
+        <v>1.021890340119489</v>
       </c>
       <c r="K11">
-        <v>1.041313973936863</v>
+        <v>1.027267868803179</v>
       </c>
       <c r="L11">
-        <v>1.04532357585312</v>
+        <v>1.021080221799366</v>
       </c>
       <c r="M11">
-        <v>1.052794915357921</v>
+        <v>1.021116036346929</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033661284047918</v>
+        <v>0.9910290589877102</v>
       </c>
       <c r="D12">
-        <v>1.037588982503987</v>
+        <v>1.01174054705973</v>
       </c>
       <c r="E12">
-        <v>1.04157557230905</v>
+        <v>1.005286252000176</v>
       </c>
       <c r="F12">
-        <v>1.049034789847471</v>
+        <v>1.005147533423952</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037188443469678</v>
+        <v>1.040008705152102</v>
       </c>
       <c r="J12">
-        <v>1.040324476069615</v>
+        <v>1.021217998255295</v>
       </c>
       <c r="K12">
-        <v>1.041195100609278</v>
+        <v>1.026646221156283</v>
       </c>
       <c r="L12">
-        <v>1.045166826760283</v>
+        <v>1.020312871727923</v>
       </c>
       <c r="M12">
-        <v>1.052598568719622</v>
+        <v>1.020176774852651</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033708200767651</v>
+        <v>0.9912784435330497</v>
       </c>
       <c r="D13">
-        <v>1.037624238121168</v>
+        <v>1.011920853391879</v>
       </c>
       <c r="E13">
-        <v>1.041618934383063</v>
+        <v>1.005498924399705</v>
       </c>
       <c r="F13">
-        <v>1.049086592702485</v>
+        <v>1.005397867802772</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037199359834959</v>
+        <v>1.040081763514603</v>
       </c>
       <c r="J13">
-        <v>1.040352784259686</v>
+        <v>1.021362567532948</v>
       </c>
       <c r="K13">
-        <v>1.041220601598952</v>
+        <v>1.026779898272651</v>
       </c>
       <c r="L13">
-        <v>1.0452004475708</v>
+        <v>1.020477843954123</v>
       </c>
       <c r="M13">
-        <v>1.052640680113123</v>
+        <v>1.020378689713949</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033861944896183</v>
+        <v>0.9920933464108989</v>
       </c>
       <c r="D14">
-        <v>1.037739769286231</v>
+        <v>1.012510180542366</v>
       </c>
       <c r="E14">
-        <v>1.041761043626646</v>
+        <v>1.006194100676304</v>
       </c>
       <c r="F14">
-        <v>1.049256369949453</v>
+        <v>1.006216144660272</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037235098381618</v>
+        <v>1.040320254655317</v>
       </c>
       <c r="J14">
-        <v>1.040445535452341</v>
+        <v>1.021834921251944</v>
       </c>
       <c r="K14">
-        <v>1.041304148849763</v>
+        <v>1.027216632235092</v>
       </c>
       <c r="L14">
-        <v>1.045310617843163</v>
+        <v>1.021016960000372</v>
       </c>
       <c r="M14">
-        <v>1.052778682748915</v>
+        <v>1.021038594390929</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033956685492684</v>
+        <v>0.9925937446678511</v>
       </c>
       <c r="D15">
-        <v>1.037810962168662</v>
+        <v>1.012872174019571</v>
       </c>
       <c r="E15">
-        <v>1.041848624900794</v>
+        <v>1.006621159356786</v>
       </c>
       <c r="F15">
-        <v>1.049361006934063</v>
+        <v>1.006718820826887</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037257095310113</v>
+        <v>1.040466519084156</v>
       </c>
       <c r="J15">
-        <v>1.040502680442082</v>
+        <v>1.022124936004333</v>
       </c>
       <c r="K15">
-        <v>1.041355618439256</v>
+        <v>1.027484752837913</v>
       </c>
       <c r="L15">
-        <v>1.045378504396796</v>
+        <v>1.021348041467484</v>
       </c>
       <c r="M15">
-        <v>1.052863727181154</v>
+        <v>1.021443902918872</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03450832592053</v>
+        <v>0.9954809559777662</v>
       </c>
       <c r="D16">
-        <v>1.038225491887016</v>
+        <v>1.014962460826396</v>
       </c>
       <c r="E16">
-        <v>1.04235873699253</v>
+        <v>1.009087901665102</v>
       </c>
       <c r="F16">
-        <v>1.04997052103999</v>
+        <v>1.009622279030243</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037384778823947</v>
+        <v>1.041307628124312</v>
       </c>
       <c r="J16">
-        <v>1.04083525638118</v>
+        <v>1.023797660270555</v>
       </c>
       <c r="K16">
-        <v>1.041655091638992</v>
+        <v>1.029030818006971</v>
       </c>
       <c r="L16">
-        <v>1.045773739634916</v>
+        <v>1.023258785733099</v>
       </c>
       <c r="M16">
-        <v>1.053358972730338</v>
+        <v>1.02378377284548</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034854538613015</v>
+        <v>0.9972702387477229</v>
       </c>
       <c r="D17">
-        <v>1.038485651878726</v>
+        <v>1.016259259139314</v>
       </c>
       <c r="E17">
-        <v>1.042679024912835</v>
+        <v>1.010618928789041</v>
       </c>
       <c r="F17">
-        <v>1.050353276081409</v>
+        <v>1.011424331117294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037464564230409</v>
+        <v>1.0418263830179</v>
       </c>
       <c r="J17">
-        <v>1.041043842884809</v>
+        <v>1.024833723336531</v>
       </c>
       <c r="K17">
-        <v>1.041842852477415</v>
+        <v>1.029988086573073</v>
       </c>
       <c r="L17">
-        <v>1.046021752761304</v>
+        <v>1.024443296701329</v>
       </c>
       <c r="M17">
-        <v>1.053669846429196</v>
+        <v>1.0252349722581</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035056544242249</v>
+        <v>0.9983062430462056</v>
       </c>
       <c r="D18">
-        <v>1.038637447471557</v>
+        <v>1.017010591920812</v>
       </c>
       <c r="E18">
-        <v>1.042865953968741</v>
+        <v>1.01150622195214</v>
       </c>
       <c r="F18">
-        <v>1.050576682550145</v>
+        <v>1.012468691966332</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037510990847459</v>
+        <v>1.042125830115002</v>
       </c>
       <c r="J18">
-        <v>1.041165496847957</v>
+        <v>1.02543339154525</v>
       </c>
       <c r="K18">
-        <v>1.041952337123256</v>
+        <v>1.030542021251137</v>
       </c>
       <c r="L18">
-        <v>1.046166447566498</v>
+        <v>1.025129255365731</v>
       </c>
       <c r="M18">
-        <v>1.053851252373479</v>
+        <v>1.026075615298565</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035125434033692</v>
+        <v>0.998658213748718</v>
       </c>
       <c r="D19">
-        <v>1.03868921405376</v>
+        <v>1.017265928096784</v>
       </c>
       <c r="E19">
-        <v>1.042929710646993</v>
+        <v>1.011807807483598</v>
       </c>
       <c r="F19">
-        <v>1.050652884105598</v>
+        <v>1.012823664228007</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037526802302213</v>
+        <v>1.042227407422772</v>
       </c>
       <c r="J19">
-        <v>1.041206975804127</v>
+        <v>1.025637083859496</v>
       </c>
       <c r="K19">
-        <v>1.041989662914463</v>
+        <v>1.030730156998891</v>
       </c>
       <c r="L19">
-        <v>1.04621579030669</v>
+        <v>1.025362321252992</v>
       </c>
       <c r="M19">
-        <v>1.053913120398721</v>
+        <v>1.02636127941635</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03481738647072</v>
+        <v>0.9970790617128001</v>
       </c>
       <c r="D20">
-        <v>1.038457734128136</v>
+        <v>1.016120651692421</v>
       </c>
       <c r="E20">
-        <v>1.042644649606258</v>
+        <v>1.01045525982165</v>
       </c>
       <c r="F20">
-        <v>1.05031219436199</v>
+        <v>1.011231689638869</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037456015473939</v>
+        <v>1.041771050908457</v>
       </c>
       <c r="J20">
-        <v>1.041021464658537</v>
+        <v>1.024723046840889</v>
       </c>
       <c r="K20">
-        <v>1.04182271092946</v>
+        <v>1.029885840382913</v>
       </c>
       <c r="L20">
-        <v>1.045995139883581</v>
+        <v>1.02431672409812</v>
       </c>
       <c r="M20">
-        <v>1.053636484486099</v>
+        <v>1.025079877146397</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033816668212492</v>
+        <v>0.9918537311372017</v>
       </c>
       <c r="D21">
-        <v>1.037705746085228</v>
+        <v>1.012336870403151</v>
       </c>
       <c r="E21">
-        <v>1.041719191185709</v>
+        <v>1.005989652424638</v>
       </c>
       <c r="F21">
-        <v>1.049206368191966</v>
+        <v>1.005975494233059</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037224579012767</v>
+        <v>1.040250166499932</v>
       </c>
       <c r="J21">
-        <v>1.040418222969479</v>
+        <v>1.021696037544056</v>
       </c>
       <c r="K21">
-        <v>1.041279547645772</v>
+        <v>1.027088226689115</v>
       </c>
       <c r="L21">
-        <v>1.045278173980755</v>
+        <v>1.020858430636226</v>
       </c>
       <c r="M21">
-        <v>1.05273804098215</v>
+        <v>1.020844536528986</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033188076892931</v>
+        <v>0.9884950608008396</v>
       </c>
       <c r="D22">
-        <v>1.037233390621379</v>
+        <v>1.009909667782643</v>
       </c>
       <c r="E22">
-        <v>1.041138325173444</v>
+        <v>1.003127195188246</v>
       </c>
       <c r="F22">
-        <v>1.048512470718221</v>
+        <v>1.002606057844479</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037078071066837</v>
+        <v>1.039264472288566</v>
       </c>
       <c r="J22">
-        <v>1.040038849224012</v>
+        <v>1.019748656335457</v>
       </c>
       <c r="K22">
-        <v>1.04093774898894</v>
+        <v>1.025287335608398</v>
       </c>
       <c r="L22">
-        <v>1.04482769426482</v>
+        <v>1.018636955244995</v>
       </c>
       <c r="M22">
-        <v>1.052173871189808</v>
+        <v>1.01812606439939</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033521247748357</v>
+        <v>0.9902827221105293</v>
       </c>
       <c r="D23">
-        <v>1.037483752081896</v>
+        <v>1.011201069037741</v>
       </c>
       <c r="E23">
-        <v>1.041446157321925</v>
+        <v>1.00464998580391</v>
       </c>
       <c r="F23">
-        <v>1.048880187638313</v>
+        <v>1.004398584248579</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037155831784493</v>
+        <v>1.039789860805418</v>
       </c>
       <c r="J23">
-        <v>1.040239970758251</v>
+        <v>1.020785303041107</v>
       </c>
       <c r="K23">
-        <v>1.041118970075021</v>
+        <v>1.026246099586142</v>
       </c>
       <c r="L23">
-        <v>1.045066472747763</v>
+        <v>1.019819194908175</v>
       </c>
       <c r="M23">
-        <v>1.052472879822404</v>
+        <v>1.019572601014892</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034834173721988</v>
+        <v>0.9971654699939329</v>
       </c>
       <c r="D24">
-        <v>1.038470348807724</v>
+        <v>1.016183298066146</v>
       </c>
       <c r="E24">
-        <v>1.042660181986289</v>
+        <v>1.010529232455089</v>
       </c>
       <c r="F24">
-        <v>1.050330756953386</v>
+        <v>1.011318756836689</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037459878631615</v>
+        <v>1.04179606277881</v>
       </c>
       <c r="J24">
-        <v>1.041031576449883</v>
+        <v>1.024773071130954</v>
       </c>
       <c r="K24">
-        <v>1.041831812130317</v>
+        <v>1.029932054684848</v>
       </c>
       <c r="L24">
-        <v>1.046007164995827</v>
+        <v>1.024373932069224</v>
       </c>
       <c r="M24">
-        <v>1.053651559069499</v>
+        <v>1.025149975895248</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036360320897137</v>
+        <v>1.004854149862562</v>
       </c>
       <c r="D25">
-        <v>1.039617142982559</v>
+        <v>1.021767212602829</v>
       </c>
       <c r="E25">
-        <v>1.044073320333562</v>
+        <v>1.017128407888156</v>
       </c>
       <c r="F25">
-        <v>1.052020016198537</v>
+        <v>1.019086313839391</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03780835708761</v>
+        <v>1.044001745982857</v>
       </c>
       <c r="J25">
-        <v>1.041949754742332</v>
+        <v>1.029219249569893</v>
       </c>
       <c r="K25">
-        <v>1.042657724194693</v>
+        <v>1.034036763171879</v>
       </c>
       <c r="L25">
-        <v>1.047100073920644</v>
+        <v>1.029466521399284</v>
       </c>
       <c r="M25">
-        <v>1.055022428136483</v>
+        <v>1.031395392173804</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
